--- a/biology/Zoologie/Anomalurus/Anomalurus.xlsx
+++ b/biology/Zoologie/Anomalurus/Anomalurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomalures
-Les Anomalures (Anomalurus sp.)[1] forment un genre de mammifères rongeurs, le seul de la sous-famille monotypique des Anomalurinae, appartenant à la famille des Anomaluridae. Notons que la seconde sous-famille, les Zenkerellinae, possède deux genres : Idiurus sp. et Zenkerella sp..
+Les Anomalures (Anomalurus sp.) forment un genre de mammifères rongeurs, le seul de la sous-famille monotypique des Anomalurinae, appartenant à la famille des Anomaluridae. Notons que la seconde sous-famille, les Zenkerellinae, possède deux genres : Idiurus sp. et Zenkerella sp..
 Ces écureuils volants (qui n'en sont pas vraiment car ils n'appartiennent pas à la famille des "vrais écureuils" : les Sciuridae) sont des animaux vivant en Afrique, essentiellement subsaharienne, dans les arbres. Leur aspect général est celui d'un écureuil à la queue longue et touffue. Une mince peau, entre le corps et les membres, le patagium, permet à ces animaux de faire des vols planés.
 La sous-famille a été créée en 1849 par le zoologiste français Paul Gervais (1816-1879) et le genre par le naturaliste britannique George Robert Waterhouse (1810-1888).
 </t>
@@ -514,14 +526,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (10 oct. 2012)[2], ITIS      (10 oct. 2012)[3] et Catalogue of Life                                   (10 oct. 2012)[4]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (10 oct. 2012), ITIS      (10 oct. 2012) et Catalogue of Life                                   (10 oct. 2012):
 Anomalurus beecrofti Fraser, 1853 — Anomalure de Beecroft ou Écureuil volant de Beecroft
 Anomalurus derbianus (Gray, 1842) — Anomalure de Derby ou Écureuil volant de Derby
 Anomalurus pelii (Schlegel et Müller, 1845) — Anomalure de Pel ou Écureuil du Scaly
 Anomalurus pusillus Thomas, 1887 — Anomalure nain ou Écureuil volant pygmée
-Selon NCBI  (10 oct. 2012)[5] :
+Selon NCBI  (10 oct. 2012) :
 Anomalurus beecrofti</t>
         </is>
       </c>
